--- a/BcpReporter/設計書.xlsx
+++ b/BcpReporter/設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devs\Python\GitHub\Pythons\BcpReporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devs\pythons\Pythons\BcpReporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BF9F54-B8F0-4403-8335-9ADDB525BBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F316568-E352-4964-B8D8-90A286055F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="1680" windowWidth="21795" windowHeight="12450" xr2:uid="{ECBF1A65-6877-4EFF-A4FB-D36F487E149E}"/>
+    <workbookView xWindow="750" yWindow="1130" windowWidth="25520" windowHeight="19100" xr2:uid="{ECBF1A65-6877-4EFF-A4FB-D36F487E149E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>W</t>
     <phoneticPr fontId="1"/>
@@ -138,6 +138,95 @@
     <t>△補正H</t>
     <rPh sb="1" eb="3">
       <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元の郵便番号</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>370-0046</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>36.3284306,139.0171539</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>370-0046,36.3284306,139.0171539</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→カンマ区切り、一つ目は元の値、二つ目は緯度、三つめは経度</t>
+    <rPh sb="4" eb="6">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イド</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミッ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー、不正郵便番号</t>
+    <rPh sb="4" eb="6">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号に位置情報を付けて修正</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>イチジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1275,9 +1364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1315,7 +1404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1421,7 +1510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1563,7 +1652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1571,18 +1660,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAEC4E8-3019-41AA-96B7-98D5C9E0719A}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1597,7 +1686,7 @@
         <v>https://www.google.com/maps?q=35.758955,137.9344605</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1612,7 +1701,7 @@
         <v>https://www.google.com/maps?q=34.6937,135.5023</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1627,17 +1716,17 @@
         <v>https://www.google.com/maps?q=43.0667,141.35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1680,11 +1769,11 @@
         <v>77</v>
       </c>
       <c r="F10">
-        <f>D10-B10</f>
+        <f t="shared" ref="F10:F19" si="0">D10-B10</f>
         <v>1</v>
       </c>
       <c r="G10">
-        <f>E10-C10</f>
+        <f t="shared" ref="G10:G19" si="1">E10-C10</f>
         <v>-12</v>
       </c>
       <c r="H10">
@@ -1700,7 +1789,7 @@
         <v>1.9405799999999971</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1717,27 +1806,27 @@
         <v>234</v>
       </c>
       <c r="F11">
-        <f>D11-B11</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G11">
-        <f>E11-C11</f>
+        <f t="shared" si="1"/>
         <v>-33</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H19" si="0">0.00008*E11*E11-0.1358*E11-3.9583</f>
+        <f t="shared" ref="H11:H19" si="2">0.00008*E11*E11-0.1358*E11-3.9583</f>
         <v>-31.355020000000003</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I19" si="1">E11-H11</f>
+        <f t="shared" ref="I11:I19" si="3">E11-H11</f>
         <v>265.35502000000002</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ref="J11:J19" si="2">E11-H11-C11</f>
+        <f t="shared" ref="J11:J19" si="4">E11-H11-C11</f>
         <v>-1.6449799999999755</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1754,27 +1843,27 @@
         <v>784</v>
       </c>
       <c r="F12">
-        <f>D12-B12</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="G12">
-        <f>E12-C12</f>
+        <f t="shared" si="1"/>
         <v>-62</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-61.253019999999999</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>845.25301999999999</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.74698000000000775</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1791,27 +1880,27 @@
         <v>834</v>
       </c>
       <c r="F13">
-        <f>D13-B13</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G13">
-        <f>E13-C13</f>
+        <f t="shared" si="1"/>
         <v>-67</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-61.571019999999997</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>895.57101999999998</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5.4289800000000241</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1828,27 +1917,27 @@
         <v>858</v>
       </c>
       <c r="F14">
-        <f>D14-B14</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G14">
-        <f>E14-C14</f>
+        <f t="shared" si="1"/>
         <v>-63</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-61.581580000000002</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>919.58158000000003</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.4184199999999691</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1865,27 +1954,27 @@
         <v>881</v>
       </c>
       <c r="F15">
-        <f>D15-B15</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G15">
-        <f>E15-C15</f>
+        <f t="shared" si="1"/>
         <v>-62</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-61.505220000000008</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>942.50522000000001</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.49477999999999156</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1902,27 +1991,27 @@
         <v>968</v>
       </c>
       <c r="F16">
-        <f>D16-B16</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G16">
-        <f>E16-C16</f>
+        <f t="shared" si="1"/>
         <v>-55</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-60.450779999999988</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1028.4507799999999</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.4507799999998952</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1939,27 +2028,27 @@
         <v>1129</v>
       </c>
       <c r="F17">
-        <f>D17-B17</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="G17">
-        <f>E17-C17</f>
+        <f t="shared" si="1"/>
         <v>-53</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-55.305220000000013</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1184.30522</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.305219999999963</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1976,27 +2065,27 @@
         <v>1490</v>
       </c>
       <c r="F18">
-        <f>D18-B18</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="G18">
-        <f>E18-C18</f>
+        <f t="shared" si="1"/>
         <v>-29</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-28.692299999999982</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1518.6922999999999</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.30770000000006803</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2013,36 +2102,91 @@
         <v>1630</v>
       </c>
       <c r="F19">
-        <f>D19-B19</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="G19">
-        <f>E19-C19</f>
+        <f t="shared" si="1"/>
         <v>-15</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-12.760299999999992</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1642.7602999999999</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.2397000000000844</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f>261*261+74*74</f>
         <v>73597</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f>SQRT(A21)</f>
         <v>271.28767019531131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
